--- a/数据整理/stocks/港股/00966-中国太平.xlsx
+++ b/数据整理/stocks/港股/00966-中国太平.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -492,26 +502,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>519139</t>
+          <t>009846</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>海富通沪港深灵活配置混合</t>
+          <t>富兰克林国海港股通远见价值混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>91.84</t>
+          <t>16.27</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>4.98</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>6</v>
+          <t>87.70</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.4474</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -520,26 +540,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>006578</t>
+          <t>519139</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>泰康中证港股通非银行金融主题指数A</t>
+          <t>海富通沪港深灵活配置混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>94.24</t>
+          <t>2.28</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2.00</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>10</v>
+          <t>91.84</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1135</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -548,25 +578,35 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>006579</t>
+          <t>006578</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>泰康中证港股通非银行金融主题指数C</t>
+          <t>泰康中证港股通非银行金融主题指数A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>94.24</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>2.00</t>
         </is>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0178</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>10</v>
       </c>
     </row>
@@ -576,26 +616,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>009846</t>
+          <t>006579</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>富兰克林国海港股通远见价值混合</t>
+          <t>泰康中证港股通非银行金融主题指数C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>87.70</t>
+          <t>0.55</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2.75</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>3</v>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0110</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -609,7 +659,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -630,15 +680,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -650,26 +710,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>005493</t>
+          <t>009863</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>鑫元价值精选灵活配置混合A</t>
+          <t>富国创新趋势股票</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>72.57</t>
+          <t>107.34</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>3.05</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>4</v>
+          <t>90.64</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5.4529</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -678,26 +748,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>005494</t>
+          <t>002653</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>鑫元价值精选灵活配置混合C</t>
+          <t>泰康沪港深精选灵活配置混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>72.57</t>
+          <t>13.19</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>3.05</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>4</v>
+          <t>88.75</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3337</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -706,26 +786,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>002653</t>
+          <t>005826</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>泰康沪港深精选灵活配置混合</t>
+          <t>华夏潜龙精选股票</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>88.75</t>
+          <t>6.00</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2.53</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>10</v>
+          <t>85.61</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3300</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -744,15 +834,25 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>88.68</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>2.98</t>
         </is>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0787</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>7</v>
       </c>
     </row>
@@ -762,26 +862,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>005826</t>
+          <t>006652</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>华夏潜龙精选股票</t>
+          <t>富国金融地产行业混合A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>85.61</t>
+          <t>0.80</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>5.50</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>4</v>
+          <t>90.79</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.06</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0565</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="7">
@@ -790,26 +900,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>005830</t>
+          <t>006578</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>建信MSCI中国A股国际通ETF联接C</t>
+          <t>泰康中证港股通非银行金融主题指数A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>85.61</t>
+          <t>1.13</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>5.50</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>4</v>
+          <t>94.31</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0250</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="8">
@@ -818,26 +938,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>009863</t>
+          <t>005493</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>富国创新趋势股票</t>
+          <t>鑫元价值精选灵活配置混合A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>90.64</t>
+          <t>0.66</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>5.08</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>7</v>
+          <t>72.57</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0201</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="9">
@@ -846,25 +976,35 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>006578</t>
+          <t>006579</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>泰康中证港股通非银行金融主题指数A</t>
+          <t>泰康中证港股通非银行金融主题指数C</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>94.31</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>2.21</t>
         </is>
       </c>
-      <c r="F9" t="n">
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0122</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
         <v>9</v>
       </c>
     </row>
@@ -874,26 +1014,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>006579</t>
+          <t>040021</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>泰康中证港股通非银行金融主题指数C</t>
+          <t>华安大中华升级股票(QDII)</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>94.31</t>
+          <t>0.37</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2.21</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>9</v>
+          <t>90.91</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0110</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="11">
@@ -902,26 +1052,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>006652</t>
+          <t>005830</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>富国金融地产行业混合A</t>
+          <t>建信MSCI中国A股国际通ETF联接C</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>90.79</t>
+          <t>0.10</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>7.06</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>8</v>
+          <t>85.61</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0055</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="12">
@@ -940,15 +1100,25 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
           <t>90.79</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>7.06</t>
         </is>
       </c>
-      <c r="F12" t="n">
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
         <v>8</v>
       </c>
     </row>
@@ -958,26 +1128,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>040021</t>
+          <t>005494</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>华安大中华升级股票(QDII)</t>
+          <t>鑫元价值精选灵活配置混合C</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>90.91</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2.97</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>7</v>
+          <t>72.57</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/港股/00966-中国太平.xlsx
+++ b/数据整理/stocks/港股/00966-中国太平.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1163,4 +1164,136 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>002653</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>泰康沪港深精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>13.23</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>86.06</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2686</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>003580</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>泰康沪港深价值优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>84.71</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0644</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/00966-中国太平.xlsx
+++ b/数据整理/stocks/港股/00966-中国太平.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1296,4 +1297,88 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>12</v>
+      </c>
+      <c r="D3" t="n">
+        <v>6.33</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>4</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.59</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/00966-中国太平.xlsx
+++ b/数据整理/stocks/港股/00966-中国太平.xlsx
@@ -1321,12 +1321,12 @@
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>持有数量(只)</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>持有市值(亿元)</t>
         </is>
       </c>
     </row>

--- a/数据整理/stocks/港股/00966-中国太平.xlsx
+++ b/数据整理/stocks/港股/00966-中国太平.xlsx
@@ -6,10 +6,10 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -453,209 +453,217 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>009846</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>富兰克林国海港股通远见价值混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>16.27</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>87.70</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2.75</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.4474</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>3</v>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.33</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>519139</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>海富通沪港深灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>2.28</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>91.84</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>4.98</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.1135</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>6</v>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>12</v>
+      </c>
+      <c r="D3" t="n">
+        <v>6.33</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
+      <c r="A4" s="2" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>006578</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>泰康中证港股通非银行金融主题指数A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0.89</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>94.24</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2.00</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0178</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>006579</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>泰康中证港股通非银行金融主题指数C</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.55</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>94.24</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2.00</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0110</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>10</v>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>4</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.59</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>002653</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>泰康沪港深精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>13.23</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>86.06</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2686</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>003580</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>泰康沪港深价值优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>84.71</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0644</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1167,218 +1175,210 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>基金代码</t>
         </is>
       </c>
-      <c r="C1" s="2" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>基金名称</t>
         </is>
       </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>基金金额</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="G1" s="2" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="2" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>002653</t>
+          <t>009846</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>泰康沪港深精选灵活配置混合</t>
+          <t>富兰克林国海港股通远见价值混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>13.23</t>
+          <t>16.27</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>86.06</t>
+          <t>87.70</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.03</t>
+          <t>2.75</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.2686</t>
+          <t>0.4474</t>
         </is>
       </c>
       <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>519139</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>海富通沪港深灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.84</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1135</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>006578</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>泰康中证港股通非银行金融主题指数A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0178</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>10</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>003580</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>泰康沪港深价值优选灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>3.08</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>84.71</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2.09</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0644</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>9</v>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>006579</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>泰康中证港股通非银行金融主题指数C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0110</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.33</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>12</v>
-      </c>
-      <c r="D3" t="n">
-        <v>6.33</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2020-Q4</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>4</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.59</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/港股/00966-中国太平.xlsx
+++ b/数据整理/stocks/港股/00966-中国太平.xlsx
@@ -7,9 +7,10 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -453,7 +454,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,14 +485,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>2</v>
       </c>
       <c r="D2" t="n">
-        <v>0.33</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="3">
@@ -500,14 +501,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>6.33</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="4">
@@ -516,13 +517,29 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>12</v>
+      </c>
+      <c r="D4" t="n">
+        <v>6.33</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>4</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>0.59</v>
       </c>
     </row>
@@ -558,7 +575,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -588,36 +605,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>002653</t>
+          <t>006890</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>泰康沪港深精选灵活配置混合</t>
+          <t>上投摩根领先优选混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>13.23</t>
+          <t>0.29</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>86.06</t>
+          <t>81.41</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.03</t>
+          <t>3.62</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.2686</t>
+          <t>0.0105</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -626,36 +643,34 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>003580</t>
+          <t>017098</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>泰康沪港深价值优选灵活配置混合</t>
+          <t>上投摩根领先优选混合C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>3.08</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>84.71</t>
+          <t>81.41</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.09</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0644</t>
-        </is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -664,6 +679,138 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>002653</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>泰康沪港深精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>13.23</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>86.06</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2686</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>003580</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>泰康沪港深价值优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>84.71</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0644</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1175,7 +1322,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
